--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>0.7276262627566669</v>
+        <v>0.08592198622377777</v>
       </c>
       <c r="R2">
-        <v>6.548636364810001</v>
+        <v>0.7732978760139999</v>
       </c>
       <c r="S2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="T2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
         <v>10.86973380729378</v>
@@ -632,10 +632,10 @@
         <v>97.82760426564398</v>
       </c>
       <c r="S3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="T3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>1.387956959154889</v>
+        <v>2.070159780635889</v>
       </c>
       <c r="R4">
-        <v>12.491612632394</v>
+        <v>18.631438025723</v>
       </c>
       <c r="S4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="T4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
     </row>
   </sheetData>
